--- a/HW3/op_history.xlsx
+++ b/HW3/op_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>OP_NAME</t>
   </si>
@@ -28,40 +28,43 @@
     <t>TOPUP</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:06:34.775872</t>
+    <t>150.6550</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:19:16.059671</t>
   </si>
   <si>
     <t>WITHDRAW</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:06:34.812812</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:06:34.842142</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:06:34.874752</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:06:34.901803</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>2024-09-24 19:06:34.927934</t>
+    <t>27.5000</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:19:16.094927</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:19:16.159715</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:19:16.199668</t>
+  </si>
+  <si>
+    <t>0.0100</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:19:16.231927</t>
+  </si>
+  <si>
+    <t>123.1650</t>
+  </si>
+  <si>
+    <t>2024-09-24 19:19:16.257522</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -492,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
